--- a/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
+++ b/results/mp/tinybert/corona/confidence/126/stop-words-masking-0.35/avg_0.003_scores.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="80">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="84">
   <si>
     <t>anchor score</t>
   </si>
@@ -55,34 +55,40 @@
     <t>forced</t>
   </si>
   <si>
+    <t>fuck</t>
+  </si>
+  <si>
+    <t>shit</t>
+  </si>
+  <si>
     <t>war</t>
   </si>
   <si>
-    <t>shit</t>
-  </si>
-  <si>
-    <t>fuck</t>
+    <t>emergency</t>
+  </si>
+  <si>
+    <t>fears</t>
   </si>
   <si>
     <t>panic</t>
   </si>
   <si>
-    <t>emergency</t>
+    <t>low</t>
   </si>
   <si>
     <t>shortage</t>
   </si>
   <si>
-    <t>low</t>
-  </si>
-  <si>
     <t>sc</t>
   </si>
   <si>
+    <t>risk</t>
+  </si>
+  <si>
     <t>empty</t>
   </si>
   <si>
-    <t>risk</t>
+    <t>fight</t>
   </si>
   <si>
     <t>stop</t>
@@ -94,121 +100,124 @@
     <t>negative</t>
   </si>
   <si>
+    <t>love</t>
+  </si>
+  <si>
+    <t>interesting</t>
+  </si>
+  <si>
     <t>happy</t>
   </si>
   <si>
-    <t>interesting</t>
-  </si>
-  <si>
-    <t>love</t>
+    <t>best</t>
+  </si>
+  <si>
+    <t>nice</t>
   </si>
   <si>
     <t>strong</t>
   </si>
   <si>
-    <t>best</t>
-  </si>
-  <si>
     <t>great</t>
   </si>
   <si>
-    <t>nice</t>
+    <t>ensure</t>
+  </si>
+  <si>
+    <t>free</t>
+  </si>
+  <si>
+    <t>friends</t>
+  </si>
+  <si>
+    <t>thank</t>
+  </si>
+  <si>
+    <t>thanks</t>
+  </si>
+  <si>
+    <t>safe</t>
+  </si>
+  <si>
+    <t>safety</t>
+  </si>
+  <si>
+    <t>positive</t>
   </si>
   <si>
     <t>special</t>
   </si>
   <si>
-    <t>positive</t>
-  </si>
-  <si>
-    <t>thank</t>
-  </si>
-  <si>
-    <t>thanks</t>
-  </si>
-  <si>
-    <t>safety</t>
+    <t>better</t>
   </si>
   <si>
     <t>support</t>
   </si>
   <si>
-    <t>safe</t>
-  </si>
-  <si>
-    <t>free</t>
-  </si>
-  <si>
-    <t>better</t>
+    <t>good</t>
   </si>
   <si>
     <t>heroes</t>
   </si>
   <si>
-    <t>friends</t>
-  </si>
-  <si>
-    <t>good</t>
-  </si>
-  <si>
-    <t>healthy</t>
-  </si>
-  <si>
     <t>confidence</t>
   </si>
   <si>
+    <t>join</t>
+  </si>
+  <si>
     <t>well</t>
   </si>
   <si>
+    <t>fresh</t>
+  </si>
+  <si>
     <t>hand</t>
   </si>
   <si>
-    <t>join</t>
+    <t>like</t>
   </si>
   <si>
     <t>relief</t>
   </si>
   <si>
-    <t>fresh</t>
-  </si>
-  <si>
     <t>important</t>
   </si>
   <si>
-    <t>like</t>
-  </si>
-  <si>
     <t>care</t>
   </si>
   <si>
-    <t>credit</t>
-  </si>
-  <si>
     <t>help</t>
   </si>
   <si>
+    <t>alert</t>
+  </si>
+  <si>
+    <t>hope</t>
+  </si>
+  <si>
+    <t>sure</t>
+  </si>
+  <si>
+    <t>please</t>
+  </si>
+  <si>
     <t>energy</t>
   </si>
   <si>
-    <t>please</t>
-  </si>
-  <si>
-    <t>hope</t>
-  </si>
-  <si>
     <t>protect</t>
   </si>
   <si>
-    <t>sure</t>
-  </si>
-  <si>
     <t>increase</t>
   </si>
   <si>
     <t>share</t>
   </si>
   <si>
-    <t>increased</t>
+    <t>give</t>
+  </si>
+  <si>
+    <t>helping</t>
   </si>
   <si>
     <t>essential</t>
@@ -217,40 +226,43 @@
     <t>online</t>
   </si>
   <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>buy</t>
+  </si>
+  <si>
+    <t>shopping</t>
+  </si>
+  <si>
+    <t>store</t>
+  </si>
+  <si>
     <t>home</t>
   </si>
   <si>
-    <t>shopping</t>
-  </si>
-  <si>
-    <t>new</t>
-  </si>
-  <si>
     <t>stock</t>
   </si>
   <si>
-    <t>store</t>
-  </si>
-  <si>
     <t>grocery</t>
   </si>
   <si>
+    <t>san</t>
+  </si>
+  <si>
+    <t>supermarket</t>
+  </si>
+  <si>
+    <t>19</t>
+  </si>
+  <si>
     <t>consumer</t>
   </si>
   <si>
-    <t>san</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>supermarket</t>
+    <t>food</t>
   </si>
   <si>
     <t>co</t>
-  </si>
-  <si>
-    <t>food</t>
   </si>
   <si>
     <t>corona</t>
@@ -611,7 +623,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q56"/>
+  <dimension ref="A1:Q58"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -619,10 +631,10 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="J1" t="s">
-        <v>34</v>
+        <v>42</v>
       </c>
     </row>
     <row r="2" spans="1:17">
@@ -680,13 +692,13 @@
         <v>8</v>
       </c>
       <c r="B3">
-        <v>0.9705882352941176</v>
+        <v>0.9117647058823529</v>
       </c>
       <c r="C3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D3">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="E3">
         <v>0</v>
@@ -698,19 +710,19 @@
         <v>0</v>
       </c>
       <c r="H3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="K3">
-        <v>0.9615384615384616</v>
+        <v>0.9782608695652174</v>
       </c>
       <c r="L3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="M3">
-        <v>25</v>
+        <v>45</v>
       </c>
       <c r="N3">
         <v>1</v>
@@ -730,13 +742,13 @@
         <v>9</v>
       </c>
       <c r="B4">
-        <v>0.75</v>
+        <v>0.8055555555555556</v>
       </c>
       <c r="C4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="D4">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="E4">
         <v>0</v>
@@ -748,19 +760,19 @@
         <v>0</v>
       </c>
       <c r="H4">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="J4" s="1" t="s">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="K4">
-        <v>0.9393939393939394</v>
+        <v>0.9696969696969697</v>
       </c>
       <c r="L4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="M4">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="N4">
         <v>1</v>
@@ -772,7 +784,7 @@
         <v>0</v>
       </c>
       <c r="Q4">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -780,13 +792,13 @@
         <v>10</v>
       </c>
       <c r="B5">
-        <v>0.7307692307692307</v>
+        <v>0.7692307692307693</v>
       </c>
       <c r="C5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D5">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E5">
         <v>0</v>
@@ -798,19 +810,19 @@
         <v>0</v>
       </c>
       <c r="H5">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J5" s="1" t="s">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="K5">
-        <v>0.9347826086956522</v>
+        <v>0.9615384615384616</v>
       </c>
       <c r="L5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="M5">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N5">
         <v>1</v>
@@ -822,7 +834,7 @@
         <v>0</v>
       </c>
       <c r="Q5">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -851,16 +863,16 @@
         <v>90</v>
       </c>
       <c r="J6" s="1" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="K6">
-        <v>0.9090909090909091</v>
+        <v>0.9322033898305084</v>
       </c>
       <c r="L6">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="M6">
-        <v>20</v>
+        <v>55</v>
       </c>
       <c r="N6">
         <v>1</v>
@@ -872,7 +884,7 @@
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>2</v>
+        <v>4</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -880,13 +892,13 @@
         <v>12</v>
       </c>
       <c r="B7">
-        <v>0.6896551724137931</v>
+        <v>0.6551724137931034</v>
       </c>
       <c r="C7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D7">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E7">
         <v>0</v>
@@ -898,19 +910,19 @@
         <v>0</v>
       </c>
       <c r="H7">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="J7" s="1" t="s">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="K7">
-        <v>0.8983050847457628</v>
+        <v>0.8888888888888888</v>
       </c>
       <c r="L7">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="M7">
-        <v>53</v>
+        <v>24</v>
       </c>
       <c r="N7">
         <v>1</v>
@@ -922,7 +934,7 @@
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>6</v>
+        <v>3</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -930,13 +942,13 @@
         <v>13</v>
       </c>
       <c r="B8">
-        <v>0.5526315789473685</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D8">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E8">
         <v>0</v>
@@ -948,19 +960,19 @@
         <v>0</v>
       </c>
       <c r="H8">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>31</v>
+        <v>33</v>
       </c>
       <c r="K8">
-        <v>0.875</v>
+        <v>0.8636363636363636</v>
       </c>
       <c r="L8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="M8">
-        <v>98</v>
+        <v>19</v>
       </c>
       <c r="N8">
         <v>1</v>
@@ -972,7 +984,7 @@
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>14</v>
+        <v>3</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -980,13 +992,13 @@
         <v>14</v>
       </c>
       <c r="B9">
-        <v>0.5384615384615384</v>
+        <v>0.5128205128205128</v>
       </c>
       <c r="C9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D9">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E9">
         <v>0</v>
@@ -998,19 +1010,19 @@
         <v>0</v>
       </c>
       <c r="H9">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="J9" s="1" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="K9">
-        <v>0.8518518518518519</v>
+        <v>0.8482142857142857</v>
       </c>
       <c r="L9">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="M9">
-        <v>23</v>
+        <v>95</v>
       </c>
       <c r="N9">
         <v>1</v>
@@ -1022,7 +1034,7 @@
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>4</v>
+        <v>17</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1030,13 +1042,13 @@
         <v>15</v>
       </c>
       <c r="B10">
-        <v>0.5128205128205128</v>
+        <v>0.5</v>
       </c>
       <c r="C10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D10">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="E10">
         <v>0</v>
@@ -1051,16 +1063,16 @@
         <v>19</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>33</v>
+        <v>35</v>
       </c>
       <c r="K10">
         <v>0.8333333333333334</v>
       </c>
       <c r="L10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="M10">
-        <v>30</v>
+        <v>20</v>
       </c>
       <c r="N10">
         <v>1</v>
@@ -1072,7 +1084,7 @@
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>6</v>
+        <v>4</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1080,13 +1092,13 @@
         <v>16</v>
       </c>
       <c r="B11">
-        <v>0.3972868217054263</v>
+        <v>0.3733333333333334</v>
       </c>
       <c r="C11">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="D11">
-        <v>205</v>
+        <v>28</v>
       </c>
       <c r="E11">
         <v>0</v>
@@ -1098,19 +1110,19 @@
         <v>0</v>
       </c>
       <c r="H11">
-        <v>311</v>
+        <v>47</v>
       </c>
       <c r="J11" s="1" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="K11">
-        <v>0.8103448275862069</v>
+        <v>0.825</v>
       </c>
       <c r="L11">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="M11">
-        <v>47</v>
+        <v>99</v>
       </c>
       <c r="N11">
         <v>1</v>
@@ -1122,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="Q11">
-        <v>11</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1130,13 +1142,13 @@
         <v>17</v>
       </c>
       <c r="B12">
-        <v>0.3733333333333334</v>
+        <v>0.3725490196078431</v>
       </c>
       <c r="C12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="D12">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="E12">
         <v>0</v>
@@ -1148,19 +1160,19 @@
         <v>0</v>
       </c>
       <c r="H12">
-        <v>47</v>
+        <v>32</v>
       </c>
       <c r="J12" s="1" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="K12">
-        <v>0.8046875</v>
+        <v>0.8214285714285714</v>
       </c>
       <c r="L12">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="M12">
-        <v>103</v>
+        <v>23</v>
       </c>
       <c r="N12">
         <v>1</v>
@@ -1172,7 +1184,7 @@
         <v>0</v>
       </c>
       <c r="Q12">
-        <v>25</v>
+        <v>5</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1180,13 +1192,13 @@
         <v>18</v>
       </c>
       <c r="B13">
-        <v>0.3728813559322034</v>
+        <v>0.3701550387596899</v>
       </c>
       <c r="C13">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="D13">
-        <v>22</v>
+        <v>191</v>
       </c>
       <c r="E13">
         <v>0</v>
@@ -1198,19 +1210,19 @@
         <v>0</v>
       </c>
       <c r="H13">
-        <v>37</v>
+        <v>325</v>
       </c>
       <c r="J13" s="1" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="K13">
-        <v>0.7926829268292683</v>
+        <v>0.8203125</v>
       </c>
       <c r="L13">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="M13">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="N13">
         <v>1</v>
@@ -1222,7 +1234,7 @@
         <v>0</v>
       </c>
       <c r="Q13">
-        <v>17</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1251,16 +1263,16 @@
         <v>94</v>
       </c>
       <c r="J14" s="1" t="s">
-        <v>37</v>
+        <v>39</v>
       </c>
       <c r="K14">
-        <v>0.7843137254901961</v>
+        <v>0.8170731707317073</v>
       </c>
       <c r="L14">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="M14">
-        <v>40</v>
+        <v>67</v>
       </c>
       <c r="N14">
         <v>1</v>
@@ -1272,7 +1284,7 @@
         <v>0</v>
       </c>
       <c r="Q14">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="15" spans="1:17">
@@ -1280,13 +1292,13 @@
         <v>20</v>
       </c>
       <c r="B15">
-        <v>0.3544973544973545</v>
+        <v>0.3220338983050847</v>
       </c>
       <c r="C15">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="D15">
-        <v>67</v>
+        <v>19</v>
       </c>
       <c r="E15">
         <v>0</v>
@@ -1298,19 +1310,19 @@
         <v>0</v>
       </c>
       <c r="H15">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="J15" s="1" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="K15">
-        <v>0.7735849056603774</v>
+        <v>0.8098591549295775</v>
       </c>
       <c r="L15">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="M15">
-        <v>82</v>
+        <v>115</v>
       </c>
       <c r="N15">
         <v>1</v>
@@ -1322,7 +1334,7 @@
         <v>0</v>
       </c>
       <c r="Q15">
-        <v>24</v>
+        <v>27</v>
       </c>
     </row>
     <row r="16" spans="1:17">
@@ -1330,13 +1342,13 @@
         <v>21</v>
       </c>
       <c r="B16">
-        <v>0.2555555555555555</v>
+        <v>0.3174603174603174</v>
       </c>
       <c r="C16">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="D16">
-        <v>23</v>
+        <v>60</v>
       </c>
       <c r="E16">
         <v>0</v>
@@ -1348,19 +1360,19 @@
         <v>0</v>
       </c>
       <c r="H16">
-        <v>67</v>
+        <v>129</v>
       </c>
       <c r="J16" s="1" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="K16">
-        <v>0.7676056338028169</v>
+        <v>0.7843137254901961</v>
       </c>
       <c r="L16">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="M16">
-        <v>109</v>
+        <v>40</v>
       </c>
       <c r="N16">
         <v>1</v>
@@ -1372,7 +1384,7 @@
         <v>0</v>
       </c>
       <c r="Q16">
-        <v>33</v>
+        <v>11</v>
       </c>
     </row>
     <row r="17" spans="1:17">
@@ -1380,13 +1392,13 @@
         <v>22</v>
       </c>
       <c r="B17">
-        <v>0.2467532467532468</v>
+        <v>0.2857142857142857</v>
       </c>
       <c r="C17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D17">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E17">
         <v>0</v>
@@ -1398,19 +1410,19 @@
         <v>0</v>
       </c>
       <c r="H17">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="J17" s="1" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
       <c r="K17">
-        <v>0.7666666666666667</v>
+        <v>0.7758620689655172</v>
       </c>
       <c r="L17">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="M17">
-        <v>92</v>
+        <v>45</v>
       </c>
       <c r="N17">
         <v>1</v>
@@ -1422,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="Q17">
-        <v>28</v>
+        <v>13</v>
       </c>
     </row>
     <row r="18" spans="1:17">
@@ -1430,13 +1442,13 @@
         <v>23</v>
       </c>
       <c r="B18">
-        <v>0.1984126984126984</v>
+        <v>0.2666666666666667</v>
       </c>
       <c r="C18">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="D18">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="E18">
         <v>0</v>
@@ -1448,19 +1460,19 @@
         <v>0</v>
       </c>
       <c r="H18">
-        <v>202</v>
+        <v>66</v>
       </c>
       <c r="J18" s="1" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="K18">
-        <v>0.746031746031746</v>
+        <v>0.75</v>
       </c>
       <c r="L18">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M18">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N18">
         <v>1</v>
@@ -1472,7 +1484,7 @@
         <v>0</v>
       </c>
       <c r="Q18">
-        <v>16</v>
+        <v>9</v>
       </c>
     </row>
     <row r="19" spans="1:17">
@@ -1480,37 +1492,37 @@
         <v>24</v>
       </c>
       <c r="B19">
-        <v>0.1179624664879357</v>
+        <v>0.2375</v>
       </c>
       <c r="C19">
+        <v>19</v>
+      </c>
+      <c r="D19">
+        <v>19</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="b">
+        <v>0</v>
+      </c>
+      <c r="H19">
+        <v>61</v>
+      </c>
+      <c r="J19" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D19">
-        <v>44</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="b">
-        <v>0</v>
-      </c>
-      <c r="H19">
-        <v>329</v>
-      </c>
-      <c r="J19" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="K19">
-        <v>0.7446808510638298</v>
+        <v>0.746031746031746</v>
       </c>
       <c r="L19">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="M19">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="N19">
         <v>1</v>
@@ -1522,47 +1534,95 @@
         <v>0</v>
       </c>
       <c r="Q19">
-        <v>12</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:17">
+      <c r="A20" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20">
+        <v>0.1984126984126984</v>
+      </c>
+      <c r="C20">
+        <v>50</v>
+      </c>
+      <c r="D20">
+        <v>50</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="b">
+        <v>0</v>
+      </c>
+      <c r="H20">
+        <v>202</v>
+      </c>
       <c r="J20" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="K20">
+        <v>0.7452830188679245</v>
+      </c>
+      <c r="L20">
+        <v>79</v>
+      </c>
+      <c r="M20">
+        <v>79</v>
+      </c>
+      <c r="N20">
+        <v>1</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+      <c r="P20" t="b">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
+      <c r="A21" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B21">
+        <v>0.1152815013404826</v>
+      </c>
+      <c r="C21">
         <v>43</v>
       </c>
-      <c r="K20">
-        <v>0.7142857142857143</v>
-      </c>
-      <c r="L20">
-        <v>20</v>
-      </c>
-      <c r="M20">
-        <v>20</v>
-      </c>
-      <c r="N20">
-        <v>1</v>
-      </c>
-      <c r="O20">
-        <v>0</v>
-      </c>
-      <c r="P20" t="b">
-        <v>0</v>
-      </c>
-      <c r="Q20">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+      <c r="D21">
+        <v>43</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="b">
+        <v>0</v>
+      </c>
+      <c r="H21">
+        <v>330</v>
+      </c>
       <c r="J21" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="K21">
-        <v>0.7125</v>
+        <v>0.71875</v>
       </c>
       <c r="L21">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="M21">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="N21">
         <v>1</v>
@@ -1574,21 +1634,21 @@
         <v>0</v>
       </c>
       <c r="Q21">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="22" spans="1:17">
       <c r="J22" s="1" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="K22">
-        <v>0.7037037037037037</v>
+        <v>0.7021276595744681</v>
       </c>
       <c r="L22">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="M22">
-        <v>19</v>
+        <v>33</v>
       </c>
       <c r="N22">
         <v>1</v>
@@ -1600,12 +1660,12 @@
         <v>0</v>
       </c>
       <c r="Q22">
-        <v>8</v>
+        <v>14</v>
       </c>
     </row>
     <row r="23" spans="1:17">
       <c r="J23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="K23">
         <v>0.6944444444444444</v>
@@ -1631,16 +1691,16 @@
     </row>
     <row r="24" spans="1:17">
       <c r="J24" s="1" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="K24">
-        <v>0.648936170212766</v>
+        <v>0.6744186046511628</v>
       </c>
       <c r="L24">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="M24">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="N24">
         <v>1</v>
@@ -1652,21 +1712,21 @@
         <v>0</v>
       </c>
       <c r="Q24">
-        <v>33</v>
+        <v>14</v>
       </c>
     </row>
     <row r="25" spans="1:17">
       <c r="J25" s="1" t="s">
-        <v>48</v>
+        <v>50</v>
       </c>
       <c r="K25">
-        <v>0.6318537859007833</v>
+        <v>0.648936170212766</v>
       </c>
       <c r="L25">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="M25">
-        <v>242</v>
+        <v>61</v>
       </c>
       <c r="N25">
         <v>1</v>
@@ -1678,21 +1738,21 @@
         <v>0</v>
       </c>
       <c r="Q25">
-        <v>141</v>
+        <v>33</v>
       </c>
     </row>
     <row r="26" spans="1:17">
       <c r="J26" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
       <c r="K26">
-        <v>0.6279069767441861</v>
+        <v>0.6458333333333334</v>
       </c>
       <c r="L26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="M26">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="N26">
         <v>1</v>
@@ -1704,21 +1764,21 @@
         <v>0</v>
       </c>
       <c r="Q26">
-        <v>16</v>
+        <v>17</v>
       </c>
     </row>
     <row r="27" spans="1:17">
       <c r="J27" s="1" t="s">
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="K27">
-        <v>0.62</v>
+        <v>0.6109660574412533</v>
       </c>
       <c r="L27">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="M27">
-        <v>31</v>
+        <v>234</v>
       </c>
       <c r="N27">
         <v>1</v>
@@ -1730,21 +1790,21 @@
         <v>0</v>
       </c>
       <c r="Q27">
-        <v>19</v>
+        <v>149</v>
       </c>
     </row>
     <row r="28" spans="1:17">
       <c r="J28" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="K28">
-        <v>0.6041666666666666</v>
+        <v>0.5941176470588235</v>
       </c>
       <c r="L28">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="M28">
-        <v>29</v>
+        <v>202</v>
       </c>
       <c r="N28">
         <v>1</v>
@@ -1756,21 +1816,21 @@
         <v>0</v>
       </c>
       <c r="Q28">
-        <v>19</v>
+        <v>138</v>
       </c>
     </row>
     <row r="29" spans="1:17">
       <c r="J29" s="1" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="K29">
-        <v>0.6</v>
+        <v>0.58</v>
       </c>
       <c r="L29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="M29">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="N29">
         <v>1</v>
@@ -1782,21 +1842,21 @@
         <v>0</v>
       </c>
       <c r="Q29">
-        <v>18</v>
+        <v>21</v>
       </c>
     </row>
     <row r="30" spans="1:17">
       <c r="J30" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="K30">
-        <v>0.5823529411764706</v>
+        <v>0.5777777777777777</v>
       </c>
       <c r="L30">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="M30">
-        <v>198</v>
+        <v>26</v>
       </c>
       <c r="N30">
         <v>1</v>
@@ -1808,21 +1868,21 @@
         <v>0</v>
       </c>
       <c r="Q30">
-        <v>142</v>
+        <v>19</v>
       </c>
     </row>
     <row r="31" spans="1:17">
       <c r="J31" s="1" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="K31">
-        <v>0.5730337078651685</v>
+        <v>0.5617977528089888</v>
       </c>
       <c r="L31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="M31">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="N31">
         <v>1</v>
@@ -1834,21 +1894,21 @@
         <v>0</v>
       </c>
       <c r="Q31">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:17">
       <c r="J32" s="1" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="K32">
-        <v>0.5588235294117647</v>
+        <v>0.5389830508474577</v>
       </c>
       <c r="L32">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="M32">
-        <v>19</v>
+        <v>159</v>
       </c>
       <c r="N32">
         <v>1</v>
@@ -1860,47 +1920,47 @@
         <v>0</v>
       </c>
       <c r="Q32">
-        <v>15</v>
+        <v>136</v>
       </c>
     </row>
     <row r="33" spans="10:17">
       <c r="J33" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K33">
-        <v>0.5559322033898305</v>
+        <v>0.5121951219512195</v>
       </c>
       <c r="L33">
-        <v>164</v>
+        <v>21</v>
       </c>
       <c r="M33">
-        <v>164</v>
+        <v>22</v>
       </c>
       <c r="N33">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="O33">
-        <v>0</v>
+        <v>0.05000000000000004</v>
       </c>
       <c r="P33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q33">
-        <v>131</v>
+        <v>20</v>
       </c>
     </row>
     <row r="34" spans="10:17">
       <c r="J34" s="1" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="K34">
-        <v>0.55</v>
+        <v>0.4923076923076923</v>
       </c>
       <c r="L34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="M34">
-        <v>22</v>
+        <v>32</v>
       </c>
       <c r="N34">
         <v>1</v>
@@ -1912,21 +1972,21 @@
         <v>0</v>
       </c>
       <c r="Q34">
-        <v>18</v>
+        <v>33</v>
       </c>
     </row>
     <row r="35" spans="10:17">
       <c r="J35" s="1" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="K35">
-        <v>0.4853556485355648</v>
+        <v>0.484375</v>
       </c>
       <c r="L35">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="M35">
-        <v>116</v>
+        <v>31</v>
       </c>
       <c r="N35">
         <v>1</v>
@@ -1938,21 +1998,21 @@
         <v>0</v>
       </c>
       <c r="Q35">
-        <v>123</v>
+        <v>33</v>
       </c>
     </row>
     <row r="36" spans="10:17">
       <c r="J36" s="1" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="K36">
-        <v>0.4769230769230769</v>
+        <v>0.4811715481171548</v>
       </c>
       <c r="L36">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="M36">
-        <v>31</v>
+        <v>115</v>
       </c>
       <c r="N36">
         <v>1</v>
@@ -1964,21 +2024,21 @@
         <v>0</v>
       </c>
       <c r="Q36">
-        <v>34</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37" spans="10:17">
       <c r="J37" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="K37">
-        <v>0.4657534246575342</v>
+        <v>0.475</v>
       </c>
       <c r="L37">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="M37">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="N37">
         <v>1</v>
@@ -1990,21 +2050,21 @@
         <v>0</v>
       </c>
       <c r="Q37">
-        <v>39</v>
+        <v>21</v>
       </c>
     </row>
     <row r="38" spans="10:17">
       <c r="J38" s="1" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="K38">
-        <v>0.453125</v>
+        <v>0.4657534246575342</v>
       </c>
       <c r="L38">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="M38">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="N38">
         <v>1</v>
@@ -2016,12 +2076,12 @@
         <v>0</v>
       </c>
       <c r="Q38">
-        <v>35</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="10:17">
       <c r="J39" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="K39">
         <v>0.4487179487179487</v>
@@ -2047,16 +2107,16 @@
     </row>
     <row r="40" spans="10:17">
       <c r="J40" s="1" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="K40">
-        <v>0.3428571428571429</v>
+        <v>0.3714285714285714</v>
       </c>
       <c r="L40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="M40">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="N40">
         <v>1</v>
@@ -2068,15 +2128,15 @@
         <v>0</v>
       </c>
       <c r="Q40">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="41" spans="10:17">
       <c r="J41" s="1" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="K41">
-        <v>0.3055555555555556</v>
+        <v>0.360655737704918</v>
       </c>
       <c r="L41">
         <v>22</v>
@@ -2094,21 +2154,21 @@
         <v>0</v>
       </c>
       <c r="Q41">
-        <v>50</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="10:17">
       <c r="J42" s="1" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="K42">
-        <v>0.1889763779527559</v>
+        <v>0.3389830508474576</v>
       </c>
       <c r="L42">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="M42">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="N42">
         <v>1</v>
@@ -2120,21 +2180,21 @@
         <v>0</v>
       </c>
       <c r="Q42">
-        <v>103</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="10:17">
       <c r="J43" s="1" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="K43">
-        <v>0.1244019138755981</v>
+        <v>0.1811023622047244</v>
       </c>
       <c r="L43">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="M43">
-        <v>52</v>
+        <v>23</v>
       </c>
       <c r="N43">
         <v>1</v>
@@ -2146,47 +2206,47 @@
         <v>0</v>
       </c>
       <c r="Q43">
-        <v>366</v>
+        <v>104</v>
       </c>
     </row>
     <row r="44" spans="10:17">
       <c r="J44" s="1" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="K44">
-        <v>0.1209302325581395</v>
+        <v>0.1558752997601918</v>
       </c>
       <c r="L44">
-        <v>26</v>
+        <v>65</v>
       </c>
       <c r="M44">
-        <v>26</v>
+        <v>66</v>
       </c>
       <c r="N44">
-        <v>1</v>
+        <v>0.98</v>
       </c>
       <c r="O44">
-        <v>0</v>
+        <v>0.02000000000000002</v>
       </c>
       <c r="P44" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q44">
-        <v>189</v>
+        <v>352</v>
       </c>
     </row>
     <row r="45" spans="10:17">
       <c r="J45" s="1" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="K45">
-        <v>0.1129807692307692</v>
+        <v>0.1255813953488372</v>
       </c>
       <c r="L45">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="M45">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N45">
         <v>1</v>
@@ -2198,73 +2258,73 @@
         <v>0</v>
       </c>
       <c r="Q45">
-        <v>369</v>
+        <v>188</v>
       </c>
     </row>
     <row r="46" spans="10:17">
       <c r="J46" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="K46">
-        <v>0.102803738317757</v>
+        <v>0.1162790697674419</v>
       </c>
       <c r="L46">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="M46">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="N46">
-        <v>0.96</v>
+        <v>1</v>
       </c>
       <c r="O46">
-        <v>0.04000000000000004</v>
+        <v>0</v>
       </c>
       <c r="P46" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q46">
-        <v>192</v>
+        <v>152</v>
       </c>
     </row>
     <row r="47" spans="10:17">
       <c r="J47" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="K47">
-        <v>0.08588957055214724</v>
+        <v>0.1129807692307692</v>
       </c>
       <c r="L47">
-        <v>28</v>
+        <v>47</v>
       </c>
       <c r="M47">
-        <v>29</v>
+        <v>47</v>
       </c>
       <c r="N47">
-        <v>0.97</v>
+        <v>1</v>
       </c>
       <c r="O47">
-        <v>0.03000000000000003</v>
+        <v>0</v>
       </c>
       <c r="P47" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q47">
-        <v>298</v>
+        <v>369</v>
       </c>
     </row>
     <row r="48" spans="10:17">
       <c r="J48" s="1" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="K48">
-        <v>0.08501118568232663</v>
+        <v>0.1006711409395973</v>
       </c>
       <c r="L48">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="M48">
-        <v>76</v>
+        <v>90</v>
       </c>
       <c r="N48">
         <v>1</v>
@@ -2276,73 +2336,73 @@
         <v>0</v>
       </c>
       <c r="Q48">
-        <v>818</v>
+        <v>804</v>
       </c>
     </row>
     <row r="49" spans="10:17">
       <c r="J49" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="K49">
-        <v>0.07666666666666666</v>
+        <v>0.09767441860465116</v>
       </c>
       <c r="L49">
-        <v>69</v>
+        <v>21</v>
       </c>
       <c r="M49">
-        <v>70</v>
+        <v>21</v>
       </c>
       <c r="N49">
-        <v>0.99</v>
+        <v>1</v>
       </c>
       <c r="O49">
-        <v>0.01000000000000001</v>
+        <v>0</v>
       </c>
       <c r="P49" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q49">
-        <v>831</v>
+        <v>194</v>
       </c>
     </row>
     <row r="50" spans="10:17">
       <c r="J50" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="K50">
-        <v>0.0478395061728395</v>
+        <v>0.07033639143730887</v>
       </c>
       <c r="L50">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="M50">
-        <v>33</v>
+        <v>23</v>
       </c>
       <c r="N50">
-        <v>0.9399999999999999</v>
+        <v>1</v>
       </c>
       <c r="O50">
-        <v>0.06000000000000005</v>
+        <v>0</v>
       </c>
       <c r="P50" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="Q50">
-        <v>617</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="10:17">
       <c r="J51" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="K51">
-        <v>0.04732510288065844</v>
+        <v>0.06770255271920089</v>
       </c>
       <c r="L51">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="M51">
-        <v>23</v>
+        <v>61</v>
       </c>
       <c r="N51">
         <v>1</v>
@@ -2354,137 +2414,189 @@
         <v>0</v>
       </c>
       <c r="Q51">
-        <v>463</v>
+        <v>840</v>
       </c>
     </row>
     <row r="52" spans="10:17">
       <c r="J52" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="K52">
-        <v>0.03938115330520394</v>
+        <v>0.04742268041237113</v>
       </c>
       <c r="L52">
-        <v>84</v>
+        <v>23</v>
       </c>
       <c r="M52">
-        <v>94</v>
+        <v>24</v>
       </c>
       <c r="N52">
-        <v>0.89</v>
+        <v>0.96</v>
       </c>
       <c r="O52">
-        <v>0.11</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P52" t="b">
         <v>1</v>
       </c>
       <c r="Q52">
-        <v>2049</v>
+        <v>462</v>
       </c>
     </row>
     <row r="53" spans="10:17">
       <c r="J53" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="K53">
-        <v>0.02768166089965398</v>
+        <v>0.04503464203233257</v>
       </c>
       <c r="L53">
-        <v>24</v>
+        <v>39</v>
       </c>
       <c r="M53">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="N53">
-        <v>1</v>
+        <v>0.97</v>
       </c>
       <c r="O53">
-        <v>0</v>
+        <v>0.03000000000000003</v>
       </c>
       <c r="P53" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q53">
-        <v>843</v>
+        <v>827</v>
       </c>
     </row>
     <row r="54" spans="10:17">
       <c r="J54" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="K54">
-        <v>0.02419354838709677</v>
+        <v>0.04172526957337084</v>
       </c>
       <c r="L54">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="M54">
-        <v>82</v>
+        <v>99</v>
       </c>
       <c r="N54">
-        <v>0.91</v>
+        <v>0.9</v>
       </c>
       <c r="O54">
-        <v>0.08999999999999997</v>
+        <v>0.09999999999999998</v>
       </c>
       <c r="P54" t="b">
         <v>1</v>
       </c>
       <c r="Q54">
-        <v>3025</v>
+        <v>2044</v>
       </c>
     </row>
     <row r="55" spans="10:17">
       <c r="J55" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="K55">
-        <v>0.02277432712215321</v>
+        <v>0.04006163328197226</v>
       </c>
       <c r="L55">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="M55">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="N55">
-        <v>0.92</v>
+        <v>0.96</v>
       </c>
       <c r="O55">
-        <v>0.07999999999999996</v>
+        <v>0.04000000000000004</v>
       </c>
       <c r="P55" t="b">
         <v>1</v>
       </c>
       <c r="Q55">
-        <v>944</v>
+        <v>623</v>
       </c>
     </row>
     <row r="56" spans="10:17">
       <c r="J56" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="K56">
-        <v>0.0115987460815047</v>
+        <v>0.02383419689119171</v>
       </c>
       <c r="L56">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="M56">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="N56">
-        <v>0.77</v>
+        <v>0.88</v>
       </c>
       <c r="O56">
-        <v>0.23</v>
+        <v>0.12</v>
       </c>
       <c r="P56" t="b">
         <v>1</v>
       </c>
       <c r="Q56">
-        <v>3153</v>
+        <v>942</v>
+      </c>
+    </row>
+    <row r="57" spans="10:17">
+      <c r="J57" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="K57">
+        <v>0.01906916612798966</v>
+      </c>
+      <c r="L57">
+        <v>59</v>
+      </c>
+      <c r="M57">
+        <v>72</v>
+      </c>
+      <c r="N57">
+        <v>0.82</v>
+      </c>
+      <c r="O57">
+        <v>0.18</v>
+      </c>
+      <c r="P57" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q57">
+        <v>3035</v>
+      </c>
+    </row>
+    <row r="58" spans="10:17">
+      <c r="J58" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="K58">
+        <v>0.01347117794486215</v>
+      </c>
+      <c r="L58">
+        <v>43</v>
+      </c>
+      <c r="M58">
+        <v>52</v>
+      </c>
+      <c r="N58">
+        <v>0.83</v>
+      </c>
+      <c r="O58">
+        <v>0.17</v>
+      </c>
+      <c r="P58" t="b">
+        <v>1</v>
+      </c>
+      <c r="Q58">
+        <v>3149</v>
       </c>
     </row>
   </sheetData>
